--- a/backend/src/static/templates/reports/Apiary_Sites_Template.xlsx
+++ b/backend/src/static/templates/reports/Apiary_Sites_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtennant\Documents\GitHub\nr-mals\app\server\static\templates\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gh\nr-mals\backend\src\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E1E33B-A2BE-41CE-802F-076DD4A07BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B7F95B-D4CF-4C45-A9D0-3EDBF59B6580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2790" windowWidth="28800" windowHeight="15375" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
+    <workbookView xWindow="14670" yWindow="3645" windowWidth="28800" windowHeight="15345" xr2:uid="{11309506-049F-4A42-8D72-2555D662D497}"/>
   </bookViews>
   <sheets>
     <sheet name="Apiary Producer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Last Name</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>{d.Reg[i].ApiarySiteID}</t>
+  </si>
+  <si>
+    <t>Premises ID</t>
+  </si>
+  <si>
+    <t>{d.Reg[i].PremisesID}</t>
   </si>
 </sst>
 </file>
@@ -248,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B4FD09-964A-4163-B64E-5BD98D9AE9F8}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,20 +562,20 @@
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
-    <col min="18" max="19" width="9.85546875" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="19" max="20" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
@@ -578,48 +584,52 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="K1" s="1"/>
-      <c r="N1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="O1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="K2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
       <c r="D5" s="14" t="s">
         <v>1</v>
@@ -627,11 +637,12 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -644,44 +655,47 @@
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -695,70 +709,74 @@
         <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="K8" s="7"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K15" s="6"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="L8" s="7"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="E22" s="4"/>
+      <c r="M22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="N22" s="4" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -772,15 +790,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9fc8a81a77eeb73bda9729b3f784b8c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88ad40c7f0e134defa4acd5e486d3459" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -991,6 +1000,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AE8867F-A406-43FE-8CA7-900664EF104F}">
   <ds:schemaRefs>
@@ -1009,14 +1027,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6470599-A386-4A6B-9059-1EE4DCF6BB3B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1033,4 +1043,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03155FF8-1FF1-4181-B2B9-505B2808F58D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>